--- a/CI103/L8/Issues List Week 8.xlsx
+++ b/CI103/L8/Issues List Week 8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d51d843cb3dc2762/Documents/team47-drexel-18/CI103/L8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\team47-drexel-18\CI103\L8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{02783CC8-18B7-4688-8F40-61BEBF3BC896}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{08EB8974-1450-4518-8FB9-29F1ECE8037A}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{02783CC8-18B7-4688-8F40-61BEBF3BC896}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{49021105-2512-46E4-9D5D-173C4BCEB730}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Item #</t>
   </si>
@@ -68,13 +68,58 @@
   </si>
   <si>
     <t>Status of resolution / comments</t>
+  </si>
+  <si>
+    <t>Associated Design Entity</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Signup Screen</t>
+  </si>
+  <si>
+    <t>When Signing up for the first time, users miss the Toast "Registered Sucessfully". We need to make it more obvious or change the way we notify users</t>
+  </si>
+  <si>
+    <t>Insuffecient Toast Notifications</t>
+  </si>
+  <si>
+    <t>Search Button still viewable from Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Still able to sign into application without comfirming Email Verification</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Can not see the user's information without signing up for a class first</t>
+  </si>
+  <si>
+    <t>Bug* After adding a class to to the User Profile, the user needs to sign out completely before being able to see their information</t>
+  </si>
+  <si>
+    <t>Search Screen</t>
+  </si>
+  <si>
+    <t>The User clicks on the wrong information, solutions include: Make the Search Bar more noticible, or remove the text underneath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,13 +135,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,14 +173,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -480,6 +550,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,36 +579,225 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>43247</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -566,11 +828,19 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -654,6 +924,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
